--- a/interview/interview statistics.xlsx
+++ b/interview/interview statistics.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/young/Desktop/ArtworkOntology/interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1598A091-529F-1A4F-B976-042FCD513411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A02E48-E5DF-3048-ADE7-894F4006DCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Analysis" sheetId="2" r:id="rId1"/>
-    <sheet name="Figures" sheetId="3" r:id="rId2"/>
+    <sheet name="Statistic" sheetId="2" r:id="rId1"/>
+    <sheet name="Ground Theory" sheetId="3" r:id="rId2"/>
     <sheet name="importance of different aspects" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="158">
   <si>
     <t>question</t>
   </si>
@@ -458,9 +458,6 @@
     <t>8. What are the related factors that affect emotions?</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>10. What aspects are more challenging?</t>
   </si>
   <si>
@@ -543,6 +540,15 @@
   </si>
   <si>
     <t>7 How to Deal with the Subjectivity of Captions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questions </t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>For each question, we analyse it through a suitable way. For most of the question, we use Ground Theory, which is used to analyse the interview and find the key points from the interview, to analyse their opinions through their answers.  For the order of aspects, we create a flow chart to present the flow they mentioned. And for the importance of these aspects, we create a table to represent the rank of each element, and then using the Kendall's W metric to calculate if the rank is consistent among all participants.</t>
   </si>
 </sst>
 </file>
@@ -864,16 +870,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>534774</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>29238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>479425</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>157185</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -899,8 +905,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13662025" y="3590925"/>
-          <a:ext cx="5016500" cy="3419475"/>
+          <a:off x="14845968" y="3062074"/>
+          <a:ext cx="5081516" cy="3402416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -911,16 +917,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>450851</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>131907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>479426</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>122382</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -946,8 +952,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7972425" y="3086100"/>
-          <a:ext cx="3686175" cy="4562475"/>
+          <a:off x="9882044" y="2758498"/>
+          <a:ext cx="4055052" cy="4493202"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,8 +1379,8 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1651,7 +1657,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -1860,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F338-7ED3-4786-B047-F70FCB1E88E6}">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1871,12 +1877,20 @@
     <col min="1" max="1" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+    </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1889,7 +1903,7 @@
         <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1897,7 +1911,7 @@
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1905,7 +1919,7 @@
         <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1913,15 +1927,15 @@
         <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1929,31 +1943,34 @@
         <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" t="s">
-        <v>127</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1967,7 +1984,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1978,7 +1995,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -2011,18 +2028,18 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" t="s">
         <v>131</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>132</v>
-      </c>
-      <c r="N1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -2064,7 +2081,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -2106,7 +2123,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2148,7 +2165,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -2190,7 +2207,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -2232,7 +2249,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2274,7 +2291,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2316,7 +2333,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -2358,7 +2375,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -2400,7 +2417,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -2442,7 +2459,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12">
         <v>4</v>
